--- a/content/drafts/entitats/Codis_Territori_Comarques_Catalunya.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Comarques_Catalunya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\layatsal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D6D9E6-3C59-4C5E-B124-E2A26F87C02C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449120F-7759-4E11-BCE5-8834EC919FF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1668" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comarques" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Nom de la taula:</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>Moianès</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
   </si>
 </sst>
 </file>
@@ -794,7 +806,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom Comarca" dataDxfId="0"/>
@@ -1066,20 +1078,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3"/>
-    <col min="4" max="4" width="22.109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="3"/>
+    <col min="4" max="4" width="22.08984375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -1287,7 +1299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -1303,7 +1315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -1343,7 +1355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -1431,8 +1443,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C993">
@@ -1441,7 +1467,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:B45" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B45 A46:B47" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1450,15 +1476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1467,7 +1484,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1599,23 +1616,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672E1E01-2371-4849-AFE5-AB3AA94D42FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66394F54-5B29-4A5D-8649-5881A8D34B3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1623,7 +1633,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BA5DFE-D943-42EB-A05C-6A69C114E42F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1639,4 +1649,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672E1E01-2371-4849-AFE5-AB3AA94D42FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Codis_Territori_Comarques_Catalunya.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Comarques_Catalunya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449120F-7759-4E11-BCE5-8834EC919FF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236BDCB-ADD8-4233-B4DF-E61CCA1DCA71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Codi</t>
   </si>
   <si>
-    <t>Nom Comarca</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom Comarca" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,79 +1104,79 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1192,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1200,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1216,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1232,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1248,7 +1248,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1256,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1272,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1280,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1288,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1296,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1304,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1312,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1320,7 +1320,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1336,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1344,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1352,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1368,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1376,7 +1376,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1384,7 +1384,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1392,7 +1392,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,7 +1400,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1408,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1416,7 +1416,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1424,7 +1424,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1432,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1440,24 +1440,24 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1485,6 +1485,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1616,15 +1625,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66394F54-5B29-4A5D-8649-5881A8D34B3D}">
   <ds:schemaRefs>
@@ -1634,6 +1634,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672E1E01-2371-4849-AFE5-AB3AA94D42FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BA5DFE-D943-42EB-A05C-6A69C114E42F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1649,20 +1665,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672E1E01-2371-4849-AFE5-AB3AA94D42FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>